--- a/data/bsale/bsale-cuarta-entrega.xlsx
+++ b/data/bsale/bsale-cuarta-entrega.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/nvme/workspace/jolg/etiquetas/data/bsale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2E53A7-6FC2-2043-8E4F-6F976FF76DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AA2A6F-72DE-6541-A5A3-C2644EEF6ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="38400" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -659,7 +672,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T25" sqref="A1:T25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
